--- a/junk/allWideDec17_selectedVarsOnly.xlsx
+++ b/junk/allWideDec17_selectedVarsOnly.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>state</t>
   </si>
@@ -393,6 +393,9 @@
     <t>2018establishment (firms) deaths relative to last year/cap 1k</t>
   </si>
   <si>
+    <t>2018state insurance trust expenditure/cap 1k</t>
+  </si>
+  <si>
     <t>2019Per capita personal income</t>
   </si>
   <si>
@@ -468,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CH51"/>
+  <dimension ref="A1:CI51"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -730,6 +733,9 @@
       <c r="CH1" t="s">
         <v>135</v>
       </c>
+      <c r="CI1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -961,33 +967,36 @@
         <v>1.9662165641784668</v>
       </c>
       <c r="BY2" s="1">
+        <v>737.489013671875</v>
+      </c>
+      <c r="BZ2" s="1">
         <v>43288</v>
       </c>
-      <c r="BZ2" s="2">
+      <c r="CA2" s="2">
         <v>2.367783784866333</v>
       </c>
-      <c r="CA2" s="2">
+      <c r="CB2" s="2">
         <v>2.0845706462860107</v>
       </c>
-      <c r="CB2" s="1">
+      <c r="CC2" s="1">
         <v>702.5172119140625</v>
       </c>
-      <c r="CC2" s="1">
+      <c r="CD2" s="1">
         <v>46179</v>
       </c>
-      <c r="CD2" s="2">
+      <c r="CE2" s="2">
         <v>2.184563159942627</v>
       </c>
-      <c r="CE2" s="2">
+      <c r="CF2" s="2">
         <v>2.2237687110900879</v>
       </c>
-      <c r="CF2" s="1">
+      <c r="CG2" s="1">
         <v>822.77117919921875</v>
       </c>
-      <c r="CG2" s="1">
+      <c r="CH2" s="1">
         <v>49769</v>
       </c>
-      <c r="CH2" s="1">
+      <c r="CI2" s="1">
         <v>956.12176513671875</v>
       </c>
     </row>
@@ -1221,33 +1230,36 @@
         <v>2.4693737030029297</v>
       </c>
       <c r="BY3" s="1">
+        <v>1910.583984375</v>
+      </c>
+      <c r="BZ3" s="1">
         <v>61316</v>
       </c>
-      <c r="BZ3" s="2">
+      <c r="CA3" s="2">
         <v>2.6921918392181396</v>
       </c>
-      <c r="CA3" s="2">
+      <c r="CB3" s="2">
         <v>2.8748519420623779</v>
       </c>
-      <c r="CB3" s="1">
+      <c r="CC3" s="1">
         <v>1931.9237060546875</v>
       </c>
-      <c r="CC3" s="1">
+      <c r="CD3" s="1">
         <v>62756</v>
       </c>
-      <c r="CD3" s="2">
+      <c r="CE3" s="2">
         <v>2.9736182689666748</v>
       </c>
-      <c r="CE3" s="2">
+      <c r="CF3" s="2">
         <v>2.6145451068878174</v>
       </c>
-      <c r="CF3" s="1">
+      <c r="CG3" s="1">
         <v>2248.988037109375</v>
       </c>
-      <c r="CG3" s="1">
+      <c r="CH3" s="1">
         <v>65813</v>
       </c>
-      <c r="CH3" s="1">
+      <c r="CI3" s="1">
         <v>2548.587158203125</v>
       </c>
     </row>
@@ -1481,33 +1493,36 @@
         <v>2.0948524475097656</v>
       </c>
       <c r="BY4" s="1">
+        <v>622.634033203125</v>
+      </c>
+      <c r="BZ4" s="1">
         <v>48124</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="CA4" s="2">
         <v>2.6263594627380371</v>
       </c>
-      <c r="CA4" s="2">
+      <c r="CB4" s="2">
         <v>2.1951925754547119</v>
       </c>
-      <c r="CB4" s="1">
+      <c r="CC4" s="1">
         <v>593.2965087890625</v>
       </c>
-      <c r="CC4" s="1">
+      <c r="CD4" s="1">
         <v>52327</v>
       </c>
-      <c r="CD4" s="2">
+      <c r="CE4" s="2">
         <v>2.9887213706970215</v>
       </c>
-      <c r="CE4" s="2">
+      <c r="CF4" s="2">
         <v>2.3966331481933594</v>
       </c>
-      <c r="CF4" s="1">
+      <c r="CG4" s="1">
         <v>798.46392822265625</v>
       </c>
-      <c r="CG4" s="1">
+      <c r="CH4" s="1">
         <v>55487</v>
       </c>
-      <c r="CH4" s="1">
+      <c r="CI4" s="1">
         <v>888.221435546875</v>
       </c>
     </row>
@@ -1741,33 +1756,36 @@
         <v>2.533729076385498</v>
       </c>
       <c r="BY5" s="1">
+        <v>691.19378662109375</v>
+      </c>
+      <c r="BZ5" s="1">
         <v>44324</v>
       </c>
-      <c r="BZ5" s="2">
+      <c r="CA5" s="2">
         <v>2.6908442974090576</v>
       </c>
-      <c r="CA5" s="2">
+      <c r="CB5" s="2">
         <v>2.6504600048065186</v>
       </c>
-      <c r="CB5" s="1">
+      <c r="CC5" s="1">
         <v>711.91351318359375</v>
       </c>
-      <c r="CC5" s="1">
+      <c r="CD5" s="1">
         <v>47154</v>
       </c>
-      <c r="CD5" s="2">
+      <c r="CE5" s="2">
         <v>2.7411568164825439</v>
       </c>
-      <c r="CE5" s="2">
+      <c r="CF5" s="2">
         <v>2.6654653549194336</v>
       </c>
-      <c r="CF5" s="1">
+      <c r="CG5" s="1">
         <v>740.241455078125</v>
       </c>
-      <c r="CG5" s="1">
+      <c r="CH5" s="1">
         <v>50625</v>
       </c>
-      <c r="CH5" s="1">
+      <c r="CI5" s="1">
         <v>1112.9151611328125</v>
       </c>
     </row>
@@ -2001,33 +2019,36 @@
         <v>3.9578864574432373</v>
       </c>
       <c r="BY6" s="1">
+        <v>1367.5357666015625</v>
+      </c>
+      <c r="BZ6" s="1">
         <v>64919</v>
       </c>
-      <c r="BZ6" s="2">
+      <c r="CA6" s="2">
         <v>4.6662311553955078</v>
       </c>
-      <c r="CA6" s="2">
+      <c r="CB6" s="2">
         <v>3.9122045040130615</v>
       </c>
-      <c r="CB6" s="1">
+      <c r="CC6" s="1">
         <v>1426.80712890625</v>
       </c>
-      <c r="CC6" s="1">
+      <c r="CD6" s="1">
         <v>70647</v>
       </c>
-      <c r="CD6" s="2">
+      <c r="CE6" s="2">
         <v>4.5389919281005859</v>
       </c>
-      <c r="CE6" s="2">
+      <c r="CF6" s="2">
         <v>4.4795489311218262</v>
       </c>
-      <c r="CF6" s="1">
+      <c r="CG6" s="1">
         <v>1788.228759765625</v>
       </c>
-      <c r="CG6" s="1">
+      <c r="CH6" s="1">
         <v>76614</v>
       </c>
-      <c r="CH6" s="1">
+      <c r="CI6" s="1">
         <v>2377.408203125</v>
       </c>
     </row>
@@ -2261,33 +2282,36 @@
         <v>3.4847216606140137</v>
       </c>
       <c r="BY7" s="1">
+        <v>1012.0352783203125</v>
+      </c>
+      <c r="BZ7" s="1">
         <v>62124</v>
       </c>
-      <c r="BZ7" s="2">
+      <c r="CA7" s="2">
         <v>4.341766357421875</v>
       </c>
-      <c r="CA7" s="2">
+      <c r="CB7" s="2">
         <v>3.6063299179077148</v>
       </c>
-      <c r="CB7" s="1">
+      <c r="CC7" s="1">
         <v>993.5352783203125</v>
       </c>
-      <c r="CC7" s="1">
+      <c r="CD7" s="1">
         <v>65358</v>
       </c>
-      <c r="CD7" s="2">
+      <c r="CE7" s="2">
         <v>4.5974383354187012</v>
       </c>
-      <c r="CE7" s="2">
+      <c r="CF7" s="2">
         <v>3.8718547821044922</v>
       </c>
-      <c r="CF7" s="1">
+      <c r="CG7" s="1">
         <v>1363.049072265625</v>
       </c>
-      <c r="CG7" s="1">
+      <c r="CH7" s="1">
         <v>70706</v>
       </c>
-      <c r="CH7" s="1">
+      <c r="CI7" s="1">
         <v>1678.2254638671875</v>
       </c>
     </row>
@@ -2521,33 +2545,36 @@
         <v>2.4335856437683105</v>
       </c>
       <c r="BY8" s="1">
+        <v>1370.9669189453125</v>
+      </c>
+      <c r="BZ8" s="1">
         <v>75533</v>
       </c>
-      <c r="BZ8" s="2">
+      <c r="CA8" s="2">
         <v>2.5824294090270996</v>
       </c>
-      <c r="CA8" s="2">
+      <c r="CB8" s="2">
         <v>3.3095700740814209</v>
       </c>
-      <c r="CB8" s="1">
+      <c r="CC8" s="1">
         <v>1382.6981201171875</v>
       </c>
-      <c r="CC8" s="1">
+      <c r="CD8" s="1">
         <v>78463</v>
       </c>
-      <c r="CD8" s="2">
+      <c r="CE8" s="2">
         <v>4.47412109375</v>
       </c>
-      <c r="CE8" s="2">
+      <c r="CF8" s="2">
         <v>3.1833813190460205</v>
       </c>
-      <c r="CF8" s="1">
+      <c r="CG8" s="1">
         <v>1692.25439453125</v>
       </c>
-      <c r="CG8" s="1">
+      <c r="CH8" s="1">
         <v>83294</v>
       </c>
-      <c r="CH8" s="1">
+      <c r="CI8" s="1">
         <v>1796.3466796875</v>
       </c>
     </row>
@@ -2781,33 +2808,36 @@
         <v>3.0817437171936035</v>
       </c>
       <c r="BY9" s="1">
+        <v>755.36846923828125</v>
+      </c>
+      <c r="BZ9" s="1">
         <v>54217</v>
       </c>
-      <c r="BZ9" s="2">
+      <c r="CA9" s="2">
         <v>3.6133055686950684</v>
       </c>
-      <c r="CA9" s="2">
+      <c r="CB9" s="2">
         <v>3.4617700576782227</v>
       </c>
-      <c r="CB9" s="1">
+      <c r="CC9" s="1">
         <v>774.37677001953125</v>
       </c>
-      <c r="CC9" s="1">
+      <c r="CD9" s="1">
         <v>56324</v>
       </c>
-      <c r="CD9" s="2">
+      <c r="CE9" s="2">
         <v>3.5729911327362061</v>
       </c>
-      <c r="CE9" s="2">
+      <c r="CF9" s="2">
         <v>2.979172945022583</v>
       </c>
-      <c r="CF9" s="1">
+      <c r="CG9" s="1">
         <v>962.2012939453125</v>
       </c>
-      <c r="CG9" s="1">
+      <c r="CH9" s="1">
         <v>59931</v>
       </c>
-      <c r="CH9" s="1">
+      <c r="CI9" s="1">
         <v>1092.3843994140625</v>
       </c>
     </row>
@@ -3041,33 +3071,36 @@
         <v>3.3482120037078857</v>
       </c>
       <c r="BY10" s="1">
+        <v>483.33575439453125</v>
+      </c>
+      <c r="BZ10" s="1">
         <v>54560</v>
       </c>
-      <c r="BZ10" s="2">
+      <c r="CA10" s="2">
         <v>4.1720066070556641</v>
       </c>
-      <c r="CA10" s="2">
+      <c r="CB10" s="2">
         <v>3.6242227554321289</v>
       </c>
-      <c r="CB10" s="1">
+      <c r="CC10" s="1">
         <v>499.80062866210938</v>
       </c>
-      <c r="CC10" s="1">
+      <c r="CD10" s="1">
         <v>57292</v>
       </c>
-      <c r="CD10" s="2">
+      <c r="CE10" s="2">
         <v>4.4387717247009277</v>
       </c>
-      <c r="CE10" s="2">
+      <c r="CF10" s="2">
         <v>3.7302854061126709</v>
       </c>
-      <c r="CF10" s="1">
+      <c r="CG10" s="1">
         <v>612.73272705078125</v>
       </c>
-      <c r="CG10" s="1">
+      <c r="CH10" s="1">
         <v>62270</v>
       </c>
-      <c r="CH10" s="1">
+      <c r="CI10" s="1">
         <v>835.90655517578125</v>
       </c>
     </row>
@@ -3301,33 +3334,36 @@
         <v>2.7357101440429688</v>
       </c>
       <c r="BY11" s="1">
+        <v>658.4869384765625</v>
+      </c>
+      <c r="BZ11" s="1">
         <v>49083</v>
       </c>
-      <c r="BZ11" s="2">
+      <c r="CA11" s="2">
         <v>3.5455334186553955</v>
       </c>
-      <c r="CA11" s="2">
+      <c r="CB11" s="2">
         <v>2.5819485187530518</v>
       </c>
-      <c r="CB11" s="1">
+      <c r="CC11" s="1">
         <v>671.9398193359375</v>
       </c>
-      <c r="CC11" s="1">
+      <c r="CD11" s="1">
         <v>51987</v>
       </c>
-      <c r="CD11" s="2">
+      <c r="CE11" s="2">
         <v>3.2286636829376221</v>
       </c>
-      <c r="CE11" s="2">
+      <c r="CF11" s="2">
         <v>3.2150516510009766</v>
       </c>
-      <c r="CF11" s="1">
+      <c r="CG11" s="1">
         <v>1068.9755859375</v>
       </c>
-      <c r="CG11" s="1">
+      <c r="CH11" s="1">
         <v>55786</v>
       </c>
-      <c r="CH11" s="1">
+      <c r="CI11" s="1">
         <v>1295.964111328125</v>
       </c>
     </row>
@@ -3561,33 +3597,36 @@
         <v>2.4755780696868896</v>
       </c>
       <c r="BY12" s="1">
+        <v>1114.439453125</v>
+      </c>
+      <c r="BZ12" s="1">
         <v>54700</v>
       </c>
-      <c r="BZ12" s="2">
+      <c r="CA12" s="2">
         <v>2.721785306930542</v>
       </c>
-      <c r="CA12" s="2">
+      <c r="CB12" s="2">
         <v>2.9464225769042969</v>
       </c>
-      <c r="CB12" s="1">
+      <c r="CC12" s="1">
         <v>1150.8729248046875</v>
       </c>
-      <c r="CC12" s="1">
+      <c r="CD12" s="1">
         <v>57241</v>
       </c>
-      <c r="CD12" s="2">
+      <c r="CE12" s="2">
         <v>3.1055622100830078</v>
       </c>
-      <c r="CE12" s="2">
+      <c r="CF12" s="2">
         <v>3.5897517204284668</v>
       </c>
-      <c r="CF12" s="1">
+      <c r="CG12" s="1">
         <v>1237.9456787109375</v>
       </c>
-      <c r="CG12" s="1">
+      <c r="CH12" s="1">
         <v>60947</v>
       </c>
-      <c r="CH12" s="1">
+      <c r="CI12" s="1">
         <v>1969.9150390625</v>
       </c>
     </row>
@@ -3821,33 +3860,36 @@
         <v>3.2236080169677734</v>
       </c>
       <c r="BY13" s="1">
+        <v>675.06451416015625</v>
+      </c>
+      <c r="BZ13" s="1">
         <v>45924</v>
       </c>
-      <c r="BZ13" s="2">
+      <c r="CA13" s="2">
         <v>4.9344348907470703</v>
       </c>
-      <c r="CA13" s="2">
+      <c r="CB13" s="2">
         <v>3.4928956031799316</v>
       </c>
-      <c r="CB13" s="1">
+      <c r="CC13" s="1">
         <v>693.00079345703125</v>
       </c>
-      <c r="CC13" s="1">
+      <c r="CD13" s="1">
         <v>49491</v>
       </c>
-      <c r="CD13" s="2">
+      <c r="CE13" s="2">
         <v>5.1748809814453125</v>
       </c>
-      <c r="CE13" s="2">
+      <c r="CF13" s="2">
         <v>3.4468538761138916</v>
       </c>
-      <c r="CF13" s="1">
+      <c r="CG13" s="1">
         <v>791.54193115234375</v>
       </c>
-      <c r="CG13" s="1">
+      <c r="CH13" s="1">
         <v>52369</v>
       </c>
-      <c r="CH13" s="1">
+      <c r="CI13" s="1">
         <v>821.7518310546875</v>
       </c>
     </row>
@@ -4081,33 +4123,36 @@
         <v>2.5245418548583984</v>
       </c>
       <c r="BY14" s="1">
+        <v>1224.7437744140625</v>
+      </c>
+      <c r="BZ14" s="1">
         <v>58438</v>
       </c>
-      <c r="BZ14" s="2">
+      <c r="CA14" s="2">
         <v>2.5005097389221191</v>
       </c>
-      <c r="CA14" s="2">
+      <c r="CB14" s="2">
         <v>2.4672739505767822</v>
       </c>
-      <c r="CB14" s="1">
+      <c r="CC14" s="1">
         <v>1253.488037109375</v>
       </c>
-      <c r="CC14" s="1">
+      <c r="CD14" s="1">
         <v>62139</v>
       </c>
-      <c r="CD14" s="2">
+      <c r="CE14" s="2">
         <v>2.7621684074401855</v>
       </c>
-      <c r="CE14" s="2">
+      <c r="CF14" s="2">
         <v>2.702333927154541</v>
       </c>
-      <c r="CF14" s="1">
+      <c r="CG14" s="1">
         <v>1416.0867919921875</v>
       </c>
-      <c r="CG14" s="1">
+      <c r="CH14" s="1">
         <v>67244</v>
       </c>
-      <c r="CH14" s="1">
+      <c r="CI14" s="1">
         <v>1840.192626953125</v>
       </c>
     </row>
@@ -4341,33 +4386,36 @@
         <v>1.8619146347045898</v>
       </c>
       <c r="BY15" s="1">
+        <v>425.10922241210938</v>
+      </c>
+      <c r="BZ15" s="1">
         <v>48749</v>
       </c>
-      <c r="BZ15" s="2">
+      <c r="CA15" s="2">
         <v>2.0875024795532227</v>
       </c>
-      <c r="CA15" s="2">
+      <c r="CB15" s="2">
         <v>1.9898945093154907</v>
       </c>
-      <c r="CB15" s="1">
+      <c r="CC15" s="1">
         <v>400.73019409179688</v>
       </c>
-      <c r="CC15" s="1">
+      <c r="CD15" s="1">
         <v>52219</v>
       </c>
-      <c r="CD15" s="2">
+      <c r="CE15" s="2">
         <v>2.1073901653289795</v>
       </c>
-      <c r="CE15" s="2">
+      <c r="CF15" s="2">
         <v>1.9159567356109619</v>
       </c>
-      <c r="CF15" s="1">
+      <c r="CG15" s="1">
         <v>572.05859375</v>
       </c>
-      <c r="CG15" s="1">
+      <c r="CH15" s="1">
         <v>56497</v>
       </c>
-      <c r="CH15" s="1">
+      <c r="CI15" s="1">
         <v>715.52642822265625</v>
       </c>
     </row>
@@ -4601,33 +4649,36 @@
         <v>2.3356297016143799</v>
       </c>
       <c r="BY16" s="1">
+        <v>857.9986572265625</v>
+      </c>
+      <c r="BZ16" s="1">
         <v>50367</v>
       </c>
-      <c r="BZ16" s="2">
+      <c r="CA16" s="2">
         <v>2.5876727104187012</v>
       </c>
-      <c r="CA16" s="2">
+      <c r="CB16" s="2">
         <v>2.4392359256744385</v>
       </c>
-      <c r="CB16" s="1">
+      <c r="CC16" s="1">
         <v>873.56390380859375</v>
       </c>
-      <c r="CC16" s="1">
+      <c r="CD16" s="1">
         <v>53312</v>
       </c>
-      <c r="CD16" s="2">
+      <c r="CE16" s="2">
         <v>2.607043981552124</v>
       </c>
-      <c r="CE16" s="2">
+      <c r="CF16" s="2">
         <v>2.3746585845947266</v>
       </c>
-      <c r="CF16" s="1">
+      <c r="CG16" s="1">
         <v>874.223388671875</v>
       </c>
-      <c r="CG16" s="1">
+      <c r="CH16" s="1">
         <v>57163</v>
       </c>
-      <c r="CH16" s="1">
+      <c r="CI16" s="1">
         <v>1304.9554443359375</v>
       </c>
     </row>
@@ -4861,33 +4912,36 @@
         <v>2.6929895877838135</v>
       </c>
       <c r="BY17" s="1">
+        <v>666.1197509765625</v>
+      </c>
+      <c r="BZ17" s="1">
         <v>52876</v>
       </c>
-      <c r="BZ17" s="2">
+      <c r="CA17" s="2">
         <v>2.7133505344390869</v>
       </c>
-      <c r="CA17" s="2">
+      <c r="CB17" s="2">
         <v>2.7978103160858154</v>
       </c>
-      <c r="CB17" s="1">
+      <c r="CC17" s="1">
         <v>654.7637939453125</v>
       </c>
-      <c r="CC17" s="1">
+      <c r="CD17" s="1">
         <v>55974</v>
       </c>
-      <c r="CD17" s="2">
+      <c r="CE17" s="2">
         <v>2.761012077331543</v>
       </c>
-      <c r="CE17" s="2">
+      <c r="CF17" s="2">
         <v>2.7177541255950928</v>
       </c>
-      <c r="CF17" s="1">
+      <c r="CG17" s="1">
         <v>821.76483154296875</v>
       </c>
-      <c r="CG17" s="1">
+      <c r="CH17" s="1">
         <v>58924</v>
       </c>
-      <c r="CH17" s="1">
+      <c r="CI17" s="1">
         <v>1006.4554443359375</v>
       </c>
     </row>
@@ -5121,33 +5175,36 @@
         <v>2.0946300029754639</v>
       </c>
       <c r="BY18" s="1">
+        <v>1041.452880859375</v>
+      </c>
+      <c r="BZ18" s="1">
         <v>43875</v>
       </c>
-      <c r="BZ18" s="2">
+      <c r="CA18" s="2">
         <v>2.3953876495361328</v>
       </c>
-      <c r="CA18" s="2">
+      <c r="CB18" s="2">
         <v>2.1720149517059326</v>
       </c>
-      <c r="CB18" s="1">
+      <c r="CC18" s="1">
         <v>1049.26611328125</v>
       </c>
-      <c r="CC18" s="1">
+      <c r="CD18" s="1">
         <v>47525</v>
       </c>
-      <c r="CD18" s="2">
+      <c r="CE18" s="2">
         <v>2.5821733474731445</v>
       </c>
-      <c r="CE18" s="2">
+      <c r="CF18" s="2">
         <v>2.4953608512878418</v>
       </c>
-      <c r="CF18" s="1">
+      <c r="CG18" s="1">
         <v>1322.91357421875</v>
       </c>
-      <c r="CG18" s="1">
+      <c r="CH18" s="1">
         <v>51266</v>
       </c>
-      <c r="CH18" s="1">
+      <c r="CI18" s="1">
         <v>1445.628173828125</v>
       </c>
     </row>
@@ -5381,33 +5438,36 @@
         <v>2.1288683414459229</v>
       </c>
       <c r="BY19" s="1">
+        <v>1028.8780517578125</v>
+      </c>
+      <c r="BZ19" s="1">
         <v>47668</v>
       </c>
-      <c r="BZ19" s="2">
+      <c r="CA19" s="2">
         <v>2.1578757762908936</v>
       </c>
-      <c r="CA19" s="2">
+      <c r="CB19" s="2">
         <v>2.1797721385955811</v>
       </c>
-      <c r="CB19" s="1">
+      <c r="CC19" s="1">
         <v>1033.326416015625</v>
       </c>
-      <c r="CC19" s="1">
+      <c r="CD19" s="1">
         <v>50809</v>
       </c>
-      <c r="CD19" s="2">
+      <c r="CE19" s="2">
         <v>2.0244224071502686</v>
       </c>
-      <c r="CE19" s="2">
+      <c r="CF19" s="2">
         <v>2.229745626449585</v>
       </c>
-      <c r="CF19" s="1">
+      <c r="CG19" s="1">
         <v>1347.898193359375</v>
       </c>
-      <c r="CG19" s="1">
+      <c r="CH19" s="1">
         <v>54217</v>
       </c>
-      <c r="CH19" s="1">
+      <c r="CI19" s="1">
         <v>1446.16259765625</v>
       </c>
     </row>
@@ -5641,33 +5701,36 @@
         <v>3.4758002758026123</v>
       </c>
       <c r="BY20" s="1">
+        <v>786.43304443359375</v>
+      </c>
+      <c r="BZ20" s="1">
         <v>50728</v>
       </c>
-      <c r="BZ20" s="2">
+      <c r="CA20" s="2">
         <v>3.4567570686340332</v>
       </c>
-      <c r="CA20" s="2">
+      <c r="CB20" s="2">
         <v>3.3259768486022949</v>
       </c>
-      <c r="CB20" s="1">
+      <c r="CC20" s="1">
         <v>806.3822021484375</v>
       </c>
-      <c r="CC20" s="1">
+      <c r="CD20" s="1">
         <v>54912</v>
       </c>
-      <c r="CD20" s="2">
+      <c r="CE20" s="2">
         <v>3.7466599941253662</v>
       </c>
-      <c r="CE20" s="2">
+      <c r="CF20" s="2">
         <v>3.3943095207214355</v>
       </c>
-      <c r="CF20" s="1">
+      <c r="CG20" s="1">
         <v>1103.0985107421875</v>
       </c>
-      <c r="CG20" s="1">
+      <c r="CH20" s="1">
         <v>58484</v>
       </c>
-      <c r="CH20" s="1">
+      <c r="CI20" s="1">
         <v>1139.27734375</v>
       </c>
     </row>
@@ -5901,33 +5964,36 @@
         <v>2.5553805828094482</v>
       </c>
       <c r="BY21" s="1">
+        <v>744.26898193359375</v>
+      </c>
+      <c r="BZ21" s="1">
         <v>62313</v>
       </c>
-      <c r="BZ21" s="2">
+      <c r="CA21" s="2">
         <v>2.5978727340698242</v>
       </c>
-      <c r="CA21" s="2">
+      <c r="CB21" s="2">
         <v>2.6629433631896973</v>
       </c>
-      <c r="CB21" s="1">
+      <c r="CC21" s="1">
         <v>753.68646240234375</v>
       </c>
-      <c r="CC21" s="1">
+      <c r="CD21" s="1">
         <v>65685</v>
       </c>
-      <c r="CD21" s="2">
+      <c r="CE21" s="2">
         <v>1.9435645341873169</v>
       </c>
-      <c r="CE21" s="2">
+      <c r="CF21" s="2">
         <v>2.6385626792907715</v>
       </c>
-      <c r="CF21" s="1">
+      <c r="CG21" s="1">
         <v>1022.5538940429688</v>
       </c>
-      <c r="CG21" s="1">
+      <c r="CH21" s="1">
         <v>69817</v>
       </c>
-      <c r="CH21" s="1">
+      <c r="CI21" s="1">
         <v>1068.5426025390625</v>
       </c>
     </row>
@@ -6161,33 +6227,36 @@
         <v>3.2608063220977783</v>
       </c>
       <c r="BY22" s="1">
+        <v>1018.4600830078125</v>
+      </c>
+      <c r="BZ22" s="1">
         <v>73213</v>
       </c>
-      <c r="BZ22" s="2">
+      <c r="CA22" s="2">
         <v>3.500277042388916</v>
       </c>
-      <c r="CA22" s="2">
+      <c r="CB22" s="2">
         <v>3.4062941074371338</v>
       </c>
-      <c r="CB22" s="1">
+      <c r="CC22" s="1">
         <v>1045.35302734375</v>
       </c>
-      <c r="CC22" s="1">
+      <c r="CD22" s="1">
         <v>78388</v>
       </c>
-      <c r="CD22" s="2">
+      <c r="CE22" s="2">
         <v>3.5954442024230957</v>
       </c>
-      <c r="CE22" s="2">
+      <c r="CF22" s="2">
         <v>3.5161244869232178</v>
       </c>
-      <c r="CF22" s="1">
+      <c r="CG22" s="1">
         <v>1826.7685546875</v>
       </c>
-      <c r="CG22" s="1">
+      <c r="CH22" s="1">
         <v>83653</v>
       </c>
-      <c r="CH22" s="1">
+      <c r="CI22" s="1">
         <v>2237.43115234375</v>
       </c>
     </row>
@@ -6421,33 +6490,36 @@
         <v>1.7362073659896851</v>
       </c>
       <c r="BY23" s="1">
+        <v>814.490234375</v>
+      </c>
+      <c r="BZ23" s="1">
         <v>49142</v>
       </c>
-      <c r="BZ23" s="2">
+      <c r="CA23" s="2">
         <v>2.0396013259887695</v>
       </c>
-      <c r="CA23" s="2">
+      <c r="CB23" s="2">
         <v>2.1872255802154541</v>
       </c>
-      <c r="CB23" s="1">
+      <c r="CC23" s="1">
         <v>829.0947265625</v>
       </c>
-      <c r="CC23" s="1">
+      <c r="CD23" s="1">
         <v>53388</v>
       </c>
-      <c r="CD23" s="2">
+      <c r="CE23" s="2">
         <v>2.4522073268890381</v>
       </c>
-      <c r="CE23" s="2">
+      <c r="CF23" s="2">
         <v>2.4137675762176514</v>
       </c>
-      <c r="CF23" s="1">
+      <c r="CG23" s="1">
         <v>1298.4268798828125</v>
       </c>
-      <c r="CG23" s="1">
+      <c r="CH23" s="1">
         <v>56494</v>
       </c>
-      <c r="CH23" s="1">
+      <c r="CI23" s="1">
         <v>1357.59765625</v>
       </c>
     </row>
@@ -6681,33 +6753,36 @@
         <v>2.2388184070587158</v>
       </c>
       <c r="BY24" s="1">
+        <v>1012.5336303710938</v>
+      </c>
+      <c r="BZ24" s="1">
         <v>58543</v>
       </c>
-      <c r="BZ24" s="2">
+      <c r="CA24" s="2">
         <v>2.5310046672821045</v>
       </c>
-      <c r="CA24" s="2">
+      <c r="CB24" s="2">
         <v>2.362389087677002</v>
       </c>
-      <c r="CB24" s="1">
+      <c r="CC24" s="1">
         <v>1027.192138671875</v>
       </c>
-      <c r="CC24" s="1">
+      <c r="CD24" s="1">
         <v>62240</v>
       </c>
-      <c r="CD24" s="2">
+      <c r="CE24" s="2">
         <v>2.3964612483978271</v>
       </c>
-      <c r="CE24" s="2">
+      <c r="CF24" s="2">
         <v>2.2618935108184814</v>
       </c>
-      <c r="CF24" s="1">
+      <c r="CG24" s="1">
         <v>1369.44580078125</v>
       </c>
-      <c r="CG24" s="1">
+      <c r="CH24" s="1">
         <v>66280</v>
       </c>
-      <c r="CH24" s="1">
+      <c r="CI24" s="1">
         <v>1644.5128173828125</v>
       </c>
     </row>
@@ -6941,33 +7016,36 @@
         <v>1.8358103036880493</v>
       </c>
       <c r="BY25" s="1">
+        <v>964.17724609375</v>
+      </c>
+      <c r="BZ25" s="1">
         <v>39445</v>
       </c>
-      <c r="BZ25" s="2">
+      <c r="CA25" s="2">
         <v>1.7674945592880249</v>
       </c>
-      <c r="CA25" s="2">
+      <c r="CB25" s="2">
         <v>1.8699045181274414</v>
       </c>
-      <c r="CB25" s="1">
+      <c r="CC25" s="1">
         <v>955.349609375</v>
       </c>
-      <c r="CC25" s="1">
+      <c r="CD25" s="1">
         <v>42716</v>
       </c>
-      <c r="CD25" s="2">
+      <c r="CE25" s="2">
         <v>1.8776612281799316</v>
       </c>
-      <c r="CE25" s="2">
+      <c r="CF25" s="2">
         <v>1.7866865396499634</v>
       </c>
-      <c r="CF25" s="1">
+      <c r="CG25" s="1">
         <v>1155.907470703125</v>
       </c>
-      <c r="CG25" s="1">
+      <c r="CH25" s="1">
         <v>45881</v>
       </c>
-      <c r="CH25" s="1">
+      <c r="CI25" s="1">
         <v>1261.9967041015625</v>
       </c>
     </row>
@@ -7201,33 +7279,36 @@
         <v>3.7203807830810547</v>
       </c>
       <c r="BY26" s="1">
+        <v>803.87286376953125</v>
+      </c>
+      <c r="BZ26" s="1">
         <v>49001</v>
       </c>
-      <c r="BZ26" s="2">
+      <c r="CA26" s="2">
         <v>4.0513153076171875</v>
       </c>
-      <c r="CA26" s="2">
+      <c r="CB26" s="2">
         <v>3.4497330188751221</v>
       </c>
-      <c r="CB26" s="1">
+      <c r="CC26" s="1">
         <v>831.012939453125</v>
       </c>
-      <c r="CC26" s="1">
+      <c r="CD26" s="1">
         <v>52108</v>
       </c>
-      <c r="CD26" s="2">
+      <c r="CE26" s="2">
         <v>4.1062765121459961</v>
       </c>
-      <c r="CE26" s="2">
+      <c r="CF26" s="2">
         <v>3.6485610008239746</v>
       </c>
-      <c r="CF26" s="1">
+      <c r="CG26" s="1">
         <v>976.72705078125</v>
       </c>
-      <c r="CG26" s="1">
+      <c r="CH26" s="1">
         <v>55325</v>
       </c>
-      <c r="CH26" s="1">
+      <c r="CI26" s="1">
         <v>1047.8323974609375</v>
       </c>
     </row>
@@ -7461,33 +7542,36 @@
         <v>3.8857884407043457</v>
       </c>
       <c r="BY27" s="1">
+        <v>1045.2535400390625</v>
+      </c>
+      <c r="BZ27" s="1">
         <v>50289</v>
       </c>
-      <c r="BZ27" s="2">
+      <c r="CA27" s="2">
         <v>4.7779555320739746</v>
       </c>
-      <c r="CA27" s="2">
+      <c r="CB27" s="2">
         <v>4.0350503921508789</v>
       </c>
-      <c r="CB27" s="1">
+      <c r="CC27" s="1">
         <v>1036.32666015625</v>
       </c>
-      <c r="CC27" s="1">
+      <c r="CD27" s="1">
         <v>54106</v>
       </c>
-      <c r="CD27" s="2">
+      <c r="CE27" s="2">
         <v>5.3609256744384766</v>
       </c>
-      <c r="CE27" s="2">
+      <c r="CF27" s="2">
         <v>4.2791657447814941</v>
       </c>
-      <c r="CF27" s="1">
+      <c r="CG27" s="1">
         <v>1197.8211669921875</v>
       </c>
-      <c r="CG27" s="1">
+      <c r="CH27" s="1">
         <v>56949</v>
       </c>
-      <c r="CH27" s="1">
+      <c r="CI27" s="1">
         <v>1267.00146484375</v>
       </c>
     </row>
@@ -7721,33 +7805,36 @@
         <v>3.3580679893493652</v>
       </c>
       <c r="BY28" s="1">
+        <v>418.68966674804688</v>
+      </c>
+      <c r="BZ28" s="1">
         <v>54182</v>
       </c>
-      <c r="BZ28" s="2">
+      <c r="CA28" s="2">
         <v>3.0736258029937744</v>
       </c>
-      <c r="CA28" s="2">
+      <c r="CB28" s="2">
         <v>3.2464525699615479</v>
       </c>
-      <c r="CB28" s="1">
+      <c r="CC28" s="1">
         <v>390.13055419921875</v>
       </c>
-      <c r="CC28" s="1">
+      <c r="CD28" s="1">
         <v>57421</v>
       </c>
-      <c r="CD28" s="2">
+      <c r="CE28" s="2">
         <v>3.5096395015716553</v>
       </c>
-      <c r="CE28" s="2">
+      <c r="CF28" s="2">
         <v>3.3668882846832275</v>
       </c>
-      <c r="CF28" s="1">
+      <c r="CG28" s="1">
         <v>510.96762084960938</v>
       </c>
-      <c r="CG28" s="1">
+      <c r="CH28" s="1">
         <v>61205</v>
       </c>
-      <c r="CH28" s="1">
+      <c r="CI28" s="1">
         <v>585.65191650390625</v>
       </c>
     </row>
@@ -7981,33 +8068,36 @@
         <v>2.961667537689209</v>
       </c>
       <c r="BY29" s="1">
+        <v>909.0924072265625</v>
+      </c>
+      <c r="BZ29" s="1">
         <v>52602</v>
       </c>
-      <c r="BZ29" s="2">
+      <c r="CA29" s="2">
         <v>3.6266031265258789</v>
       </c>
-      <c r="CA29" s="2">
+      <c r="CB29" s="2">
         <v>2.8588335514068604</v>
       </c>
-      <c r="CB29" s="1">
+      <c r="CC29" s="1">
         <v>934.365234375</v>
       </c>
-      <c r="CC29" s="1">
+      <c r="CD29" s="1">
         <v>55406</v>
       </c>
-      <c r="CD29" s="2">
+      <c r="CE29" s="2">
         <v>4.2230892181396484</v>
       </c>
-      <c r="CE29" s="2">
+      <c r="CF29" s="2">
         <v>3.136408805847168</v>
       </c>
-      <c r="CF29" s="1">
+      <c r="CG29" s="1">
         <v>1497.9228515625</v>
       </c>
-      <c r="CG29" s="1">
+      <c r="CH29" s="1">
         <v>60213</v>
       </c>
-      <c r="CH29" s="1">
+      <c r="CI29" s="1">
         <v>2023.1689453125</v>
       </c>
     </row>
@@ -8241,33 +8331,36 @@
         <v>3.4005773067474365</v>
       </c>
       <c r="BY30" s="1">
+        <v>607.8414306640625</v>
+      </c>
+      <c r="BZ30" s="1">
         <v>64747</v>
       </c>
-      <c r="BZ30" s="2">
+      <c r="CA30" s="2">
         <v>3.886732816696167</v>
       </c>
-      <c r="CA30" s="2">
+      <c r="CB30" s="2">
         <v>3.6927268505096436</v>
       </c>
-      <c r="CB30" s="1">
+      <c r="CC30" s="1">
         <v>611.5611572265625</v>
       </c>
-      <c r="CC30" s="1">
+      <c r="CD30" s="1">
         <v>68542</v>
       </c>
-      <c r="CD30" s="2">
+      <c r="CE30" s="2">
         <v>4.5716218948364258</v>
       </c>
-      <c r="CE30" s="2">
+      <c r="CF30" s="2">
         <v>3.8973820209503174</v>
       </c>
-      <c r="CF30" s="1">
+      <c r="CG30" s="1">
         <v>793.68841552734375</v>
       </c>
-      <c r="CG30" s="1">
+      <c r="CH30" s="1">
         <v>73200</v>
       </c>
-      <c r="CH30" s="1">
+      <c r="CI30" s="1">
         <v>763.3564453125</v>
       </c>
     </row>
@@ -8501,33 +8594,36 @@
         <v>2.9037094116210938</v>
       </c>
       <c r="BY31" s="1">
+        <v>1557.510986328125</v>
+      </c>
+      <c r="BZ31" s="1">
         <v>68438</v>
       </c>
-      <c r="BZ31" s="2">
+      <c r="CA31" s="2">
         <v>3.3905212879180908</v>
       </c>
-      <c r="CA31" s="2">
+      <c r="CB31" s="2">
         <v>2.8817069530487061</v>
       </c>
-      <c r="CB31" s="1">
+      <c r="CC31" s="1">
         <v>1579.05517578125</v>
       </c>
-      <c r="CC31" s="1">
+      <c r="CD31" s="1">
         <v>71505</v>
       </c>
-      <c r="CD31" s="2">
+      <c r="CE31" s="2">
         <v>3.4620571136474609</v>
       </c>
-      <c r="CE31" s="2">
+      <c r="CF31" s="2">
         <v>3.5486974716186523</v>
       </c>
-      <c r="CF31" s="1">
+      <c r="CG31" s="1">
         <v>1887.045166015625</v>
       </c>
-      <c r="CG31" s="1">
+      <c r="CH31" s="1">
         <v>77016</v>
       </c>
-      <c r="CH31" s="1">
+      <c r="CI31" s="1">
         <v>1324.2642822265625</v>
       </c>
     </row>
@@ -8761,33 +8857,36 @@
         <v>2.4678161144256592</v>
       </c>
       <c r="BY32" s="1">
+        <v>1182.9288330078125</v>
+      </c>
+      <c r="BZ32" s="1">
         <v>43530</v>
       </c>
-      <c r="BZ32" s="2">
+      <c r="CA32" s="2">
         <v>2.7395250797271729</v>
       </c>
-      <c r="CA32" s="2">
+      <c r="CB32" s="2">
         <v>2.4618575572967529</v>
       </c>
-      <c r="CB32" s="1">
+      <c r="CC32" s="1">
         <v>1175.29248046875</v>
       </c>
-      <c r="CC32" s="1">
+      <c r="CD32" s="1">
         <v>46760</v>
       </c>
-      <c r="CD32" s="2">
+      <c r="CE32" s="2">
         <v>2.7300212383270264</v>
       </c>
-      <c r="CE32" s="2">
+      <c r="CF32" s="2">
         <v>2.972752571105957</v>
       </c>
-      <c r="CF32" s="1">
+      <c r="CG32" s="1">
         <v>1403.4820556640625</v>
       </c>
-      <c r="CG32" s="1">
+      <c r="CH32" s="1">
         <v>50311</v>
       </c>
-      <c r="CH32" s="1">
+      <c r="CI32" s="1">
         <v>1791.1187744140625</v>
       </c>
     </row>
@@ -9021,33 +9120,36 @@
         <v>2.9890353679656982</v>
       </c>
       <c r="BY33" s="1">
+        <v>1200.2926025390625</v>
+      </c>
+      <c r="BZ33" s="1">
         <v>67366</v>
       </c>
-      <c r="BZ33" s="2">
+      <c r="CA33" s="2">
         <v>3.0513076782226562</v>
       </c>
-      <c r="CA33" s="2">
+      <c r="CB33" s="2">
         <v>3.0814671516418457</v>
       </c>
-      <c r="CB33" s="1">
+      <c r="CC33" s="1">
         <v>1199.803466796875</v>
       </c>
-      <c r="CC33" s="1">
+      <c r="CD33" s="1">
         <v>71577</v>
       </c>
-      <c r="CD33" s="2">
+      <c r="CE33" s="2">
         <v>2.5657241344451904</v>
       </c>
-      <c r="CE33" s="2">
+      <c r="CF33" s="2">
         <v>3.7069833278656006</v>
       </c>
-      <c r="CF33" s="1">
+      <c r="CG33" s="1">
         <v>1332.8673095703125</v>
       </c>
-      <c r="CG33" s="1">
+      <c r="CH33" s="1">
         <v>76837</v>
       </c>
-      <c r="CH33" s="1">
+      <c r="CI33" s="1">
         <v>1742.629150390625</v>
       </c>
     </row>
@@ -9281,33 +9383,36 @@
         <v>2.3604228496551514</v>
       </c>
       <c r="BY34" s="1">
+        <v>610.55072021484375</v>
+      </c>
+      <c r="BZ34" s="1">
         <v>48741</v>
       </c>
-      <c r="BZ34" s="2">
+      <c r="CA34" s="2">
         <v>2.693549633026123</v>
       </c>
-      <c r="CA34" s="2">
+      <c r="CB34" s="2">
         <v>2.378448486328125</v>
       </c>
-      <c r="CB34" s="1">
+      <c r="CC34" s="1">
         <v>609.6578369140625</v>
       </c>
-      <c r="CC34" s="1">
+      <c r="CD34" s="1">
         <v>51900</v>
       </c>
-      <c r="CD34" s="2">
+      <c r="CE34" s="2">
         <v>3.0044436454772949</v>
       </c>
-      <c r="CE34" s="2">
+      <c r="CF34" s="2">
         <v>2.4887213706970215</v>
       </c>
-      <c r="CF34" s="1">
+      <c r="CG34" s="1">
         <v>763.84375</v>
       </c>
-      <c r="CG34" s="1">
+      <c r="CH34" s="1">
         <v>56173</v>
       </c>
-      <c r="CH34" s="1">
+      <c r="CI34" s="1">
         <v>880.96600341796875</v>
       </c>
     </row>
@@ -9541,33 +9646,36 @@
         <v>3.432614803314209</v>
       </c>
       <c r="BY35" s="1">
+        <v>830.29541015625</v>
+      </c>
+      <c r="BZ35" s="1">
         <v>57110</v>
       </c>
-      <c r="BZ35" s="2">
+      <c r="CA35" s="2">
         <v>3.7081458568572998</v>
       </c>
-      <c r="CA35" s="2">
+      <c r="CB35" s="2">
         <v>3.4240117073059082</v>
       </c>
-      <c r="CB35" s="1">
+      <c r="CC35" s="1">
         <v>833.40972900390625</v>
       </c>
-      <c r="CC35" s="1">
+      <c r="CD35" s="1">
         <v>60864</v>
       </c>
-      <c r="CD35" s="2">
+      <c r="CE35" s="2">
         <v>3.5791220664978027</v>
       </c>
-      <c r="CE35" s="2">
+      <c r="CF35" s="2">
         <v>3.7126328945159912</v>
       </c>
-      <c r="CF35" s="1">
+      <c r="CG35" s="1">
         <v>1035.5576171875</v>
       </c>
-      <c r="CG35" s="1">
+      <c r="CH35" s="1">
         <v>64524</v>
       </c>
-      <c r="CH35" s="1">
+      <c r="CI35" s="1">
         <v>1243.911865234375</v>
       </c>
     </row>
@@ -9801,33 +9909,36 @@
         <v>1.8900953531265259</v>
       </c>
       <c r="BY36" s="1">
+        <v>1487.89111328125</v>
+      </c>
+      <c r="BZ36" s="1">
         <v>50035</v>
       </c>
-      <c r="BZ36" s="2">
+      <c r="CA36" s="2">
         <v>1.9769150018692017</v>
       </c>
-      <c r="CA36" s="2">
+      <c r="CB36" s="2">
         <v>1.9610128402709961</v>
       </c>
-      <c r="CB36" s="1">
+      <c r="CC36" s="1">
         <v>1447.81884765625</v>
       </c>
-      <c r="CC36" s="1">
+      <c r="CD36" s="1">
         <v>53545</v>
       </c>
-      <c r="CD36" s="2">
+      <c r="CE36" s="2">
         <v>2.0975205898284912</v>
       </c>
-      <c r="CE36" s="2">
+      <c r="CF36" s="2">
         <v>2.0766565799713135</v>
       </c>
-      <c r="CF36" s="1">
+      <c r="CG36" s="1">
         <v>1753.99169921875</v>
       </c>
-      <c r="CG36" s="1">
+      <c r="CH36" s="1">
         <v>56879</v>
       </c>
-      <c r="CH36" s="1">
+      <c r="CI36" s="1">
         <v>1780.1768798828125</v>
       </c>
     </row>
@@ -10061,33 +10172,36 @@
         <v>2.5175681114196777</v>
       </c>
       <c r="BY37" s="1">
+        <v>681.94525146484375</v>
+      </c>
+      <c r="BZ37" s="1">
         <v>48646</v>
       </c>
-      <c r="BZ37" s="2">
+      <c r="CA37" s="2">
         <v>2.6255619525909424</v>
       </c>
-      <c r="CA37" s="2">
+      <c r="CB37" s="2">
         <v>2.5273463726043701</v>
       </c>
-      <c r="CB37" s="1">
+      <c r="CC37" s="1">
         <v>670.58349609375</v>
       </c>
-      <c r="CC37" s="1">
+      <c r="CD37" s="1">
         <v>50518</v>
       </c>
-      <c r="CD37" s="2">
+      <c r="CE37" s="2">
         <v>2.4611115455627441</v>
       </c>
-      <c r="CE37" s="2">
+      <c r="CF37" s="2">
         <v>2.5037662982940674</v>
       </c>
-      <c r="CF37" s="1">
+      <c r="CG37" s="1">
         <v>840.067626953125</v>
       </c>
-      <c r="CG37" s="1">
+      <c r="CH37" s="1">
         <v>53870</v>
       </c>
-      <c r="CH37" s="1">
+      <c r="CI37" s="1">
         <v>1113.07373046875</v>
       </c>
     </row>
@@ -10321,33 +10435,36 @@
         <v>3.1310818195343018</v>
       </c>
       <c r="BY38" s="1">
+        <v>1417.1741943359375</v>
+      </c>
+      <c r="BZ38" s="1">
         <v>52718</v>
       </c>
-      <c r="BZ38" s="2">
+      <c r="CA38" s="2">
         <v>3.4408445358276367</v>
       </c>
-      <c r="CA38" s="2">
+      <c r="CB38" s="2">
         <v>3.1377220153808594</v>
       </c>
-      <c r="CB38" s="1">
+      <c r="CC38" s="1">
         <v>1427.0238037109375</v>
       </c>
-      <c r="CC38" s="1">
+      <c r="CD38" s="1">
         <v>57005</v>
       </c>
-      <c r="CD38" s="2">
+      <c r="CE38" s="2">
         <v>5.5673122406005859</v>
       </c>
-      <c r="CE38" s="2">
+      <c r="CF38" s="2">
         <v>3.7125632762908936</v>
       </c>
-      <c r="CF38" s="1">
+      <c r="CG38" s="1">
         <v>1805.177490234375</v>
       </c>
-      <c r="CG38" s="1">
+      <c r="CH38" s="1">
         <v>61596</v>
       </c>
-      <c r="CH38" s="1">
+      <c r="CI38" s="1">
         <v>1090.893798828125</v>
       </c>
     </row>
@@ -10581,33 +10698,36 @@
         <v>2.2245891094207764</v>
       </c>
       <c r="BY39" s="1">
+        <v>1000.181640625</v>
+      </c>
+      <c r="BZ39" s="1">
         <v>56952</v>
       </c>
-      <c r="BZ39" s="2">
+      <c r="CA39" s="2">
         <v>2.2852776050567627</v>
       </c>
-      <c r="CA39" s="2">
+      <c r="CB39" s="2">
         <v>2.245039701461792</v>
       </c>
-      <c r="CB39" s="1">
+      <c r="CC39" s="1">
         <v>945.073486328125</v>
       </c>
-      <c r="CC39" s="1">
+      <c r="CD39" s="1">
         <v>60685</v>
       </c>
-      <c r="CD39" s="2">
+      <c r="CE39" s="2">
         <v>2.2451765537261963</v>
       </c>
-      <c r="CE39" s="2">
+      <c r="CF39" s="2">
         <v>2.4674308300018311</v>
       </c>
-      <c r="CF39" s="1">
+      <c r="CG39" s="1">
         <v>1404.810546875</v>
       </c>
-      <c r="CG39" s="1">
+      <c r="CH39" s="1">
         <v>64279</v>
       </c>
-      <c r="CH39" s="1">
+      <c r="CI39" s="1">
         <v>1512.343017578125</v>
       </c>
     </row>
@@ -10841,33 +10961,36 @@
         <v>3.1897280216217041</v>
       </c>
       <c r="BY40" s="1">
+        <v>1212.654541015625</v>
+      </c>
+      <c r="BZ40" s="1">
         <v>55830</v>
       </c>
-      <c r="BZ40" s="2">
+      <c r="CA40" s="2">
         <v>3.8028347492218018</v>
       </c>
-      <c r="CA40" s="2">
+      <c r="CB40" s="2">
         <v>3.4947521686553955</v>
       </c>
-      <c r="CB40" s="1">
+      <c r="CC40" s="1">
         <v>1230.9163818359375</v>
       </c>
-      <c r="CC40" s="1">
+      <c r="CD40" s="1">
         <v>59941</v>
       </c>
-      <c r="CD40" s="2">
+      <c r="CE40" s="2">
         <v>4.139646053314209</v>
       </c>
-      <c r="CE40" s="2">
+      <c r="CF40" s="2">
         <v>3.7930030822753906</v>
       </c>
-      <c r="CF40" s="1">
+      <c r="CG40" s="1">
         <v>1435.3780517578125</v>
       </c>
-      <c r="CG40" s="1">
+      <c r="CH40" s="1">
         <v>64376</v>
       </c>
-      <c r="CH40" s="1">
+      <c r="CI40" s="1">
         <v>1668.667724609375</v>
       </c>
     </row>
@@ -11101,33 +11224,36 @@
         <v>2.1044044494628906</v>
       </c>
       <c r="BY41" s="1">
+        <v>832.1409912109375</v>
+      </c>
+      <c r="BZ41" s="1">
         <v>46681</v>
       </c>
-      <c r="BZ41" s="2">
+      <c r="CA41" s="2">
         <v>2.8328506946563721</v>
       </c>
-      <c r="CA41" s="2">
+      <c r="CB41" s="2">
         <v>2.4522550106048584</v>
       </c>
-      <c r="CB41" s="1">
+      <c r="CC41" s="1">
         <v>686.9677734375</v>
       </c>
-      <c r="CC41" s="1">
+      <c r="CD41" s="1">
         <v>49105</v>
       </c>
-      <c r="CD41" s="2">
+      <c r="CE41" s="2">
         <v>3.0112679004669189</v>
       </c>
-      <c r="CE41" s="2">
+      <c r="CF41" s="2">
         <v>2.6095707416534424</v>
       </c>
-      <c r="CF41" s="1">
+      <c r="CG41" s="1">
         <v>859.30712890625</v>
       </c>
-      <c r="CG41" s="1">
+      <c r="CH41" s="1">
         <v>52467</v>
       </c>
-      <c r="CH41" s="1">
+      <c r="CI41" s="1">
         <v>980.64117431640625</v>
       </c>
     </row>
@@ -11361,33 +11487,36 @@
         <v>2.7758004665374756</v>
       </c>
       <c r="BY42" s="1">
+        <v>679.6947021484375</v>
+      </c>
+      <c r="BZ42" s="1">
         <v>55294</v>
       </c>
-      <c r="BZ42" s="2">
+      <c r="CA42" s="2">
         <v>3.3726851940155029</v>
       </c>
-      <c r="CA42" s="2">
+      <c r="CB42" s="2">
         <v>3.0040793418884277</v>
       </c>
-      <c r="CB42" s="1">
+      <c r="CC42" s="1">
         <v>675.19305419921875</v>
       </c>
-      <c r="CC42" s="1">
+      <c r="CD42" s="1">
         <v>60446</v>
       </c>
-      <c r="CD42" s="2">
+      <c r="CE42" s="2">
         <v>3.6478455066680908</v>
       </c>
-      <c r="CE42" s="2">
+      <c r="CF42" s="2">
         <v>3.0977377891540527</v>
       </c>
-      <c r="CF42" s="1">
+      <c r="CG42" s="1">
         <v>775.64959716796875</v>
       </c>
-      <c r="CG42" s="1">
+      <c r="CH42" s="1">
         <v>64462</v>
       </c>
-      <c r="CH42" s="1">
+      <c r="CI42" s="1">
         <v>1124.0361328125</v>
       </c>
     </row>
@@ -11621,33 +11750,36 @@
         <v>2.014700174331665</v>
       </c>
       <c r="BY43" s="1">
+        <v>409.31222534179688</v>
+      </c>
+      <c r="BZ43" s="1">
         <v>49343</v>
       </c>
-      <c r="BZ43" s="2">
+      <c r="CA43" s="2">
         <v>2.3937368392944336</v>
       </c>
-      <c r="CA43" s="2">
+      <c r="CB43" s="2">
         <v>2.0490972995758057</v>
       </c>
-      <c r="CB43" s="1">
+      <c r="CC43" s="1">
         <v>414.57281494140625</v>
       </c>
-      <c r="CC43" s="1">
+      <c r="CD43" s="1">
         <v>52351</v>
       </c>
-      <c r="CD43" s="2">
+      <c r="CE43" s="2">
         <v>3.0869412422180176</v>
       </c>
-      <c r="CE43" s="2">
+      <c r="CF43" s="2">
         <v>2.188112735748291</v>
       </c>
-      <c r="CF43" s="1">
+      <c r="CG43" s="1">
         <v>282.86016845703125</v>
       </c>
-      <c r="CG43" s="1">
+      <c r="CH43" s="1">
         <v>56560</v>
       </c>
-      <c r="CH43" s="1">
+      <c r="CI43" s="1">
         <v>609.51129150390625</v>
       </c>
     </row>
@@ -11881,33 +12013,36 @@
         <v>2.2194924354553223</v>
       </c>
       <c r="BY44" s="1">
+        <v>645.0269775390625</v>
+      </c>
+      <c r="BZ44" s="1">
         <v>54076</v>
       </c>
-      <c r="BZ44" s="2">
+      <c r="CA44" s="2">
         <v>2.6220905780792236</v>
       </c>
-      <c r="CA44" s="2">
+      <c r="CB44" s="2">
         <v>2.2291531562805176</v>
       </c>
-      <c r="CB44" s="1">
+      <c r="CC44" s="1">
         <v>618.27685546875</v>
       </c>
-      <c r="CC44" s="1">
+      <c r="CD44" s="1">
         <v>55601</v>
       </c>
-      <c r="CD44" s="2">
+      <c r="CE44" s="2">
         <v>2.6179378032684326</v>
       </c>
-      <c r="CE44" s="2">
+      <c r="CF44" s="2">
         <v>2.3444046974182129</v>
       </c>
-      <c r="CF44" s="1">
+      <c r="CG44" s="1">
         <v>809.66241455078125</v>
       </c>
-      <c r="CG44" s="1">
+      <c r="CH44" s="1">
         <v>59865</v>
       </c>
-      <c r="CH44" s="1">
+      <c r="CI44" s="1">
         <v>1167.8623046875</v>
       </c>
     </row>
@@ -12141,33 +12276,36 @@
         <v>3.2217137813568115</v>
       </c>
       <c r="BY45" s="1">
+        <v>555.30584716796875</v>
+      </c>
+      <c r="BZ45" s="1">
         <v>48580</v>
       </c>
-      <c r="BZ45" s="2">
+      <c r="CA45" s="2">
         <v>4.3550834655761719</v>
       </c>
-      <c r="CA45" s="2">
+      <c r="CB45" s="2">
         <v>3.5434415340423584</v>
       </c>
-      <c r="CB45" s="1">
+      <c r="CC45" s="1">
         <v>573.9813232421875</v>
       </c>
-      <c r="CC45" s="1">
+      <c r="CD45" s="1">
         <v>52225</v>
       </c>
-      <c r="CD45" s="2">
+      <c r="CE45" s="2">
         <v>4.8837728500366211</v>
       </c>
-      <c r="CE45" s="2">
+      <c r="CF45" s="2">
         <v>3.3281693458557129</v>
       </c>
-      <c r="CF45" s="1">
+      <c r="CG45" s="1">
         <v>674.61920166015625</v>
       </c>
-      <c r="CG45" s="1">
+      <c r="CH45" s="1">
         <v>56019</v>
       </c>
-      <c r="CH45" s="1">
+      <c r="CI45" s="1">
         <v>725.13397216796875</v>
       </c>
     </row>
@@ -12401,33 +12539,36 @@
         <v>3.4042785167694092</v>
       </c>
       <c r="BY46" s="1">
+        <v>657.93963623046875</v>
+      </c>
+      <c r="BZ46" s="1">
         <v>55442</v>
       </c>
-      <c r="BZ46" s="2">
+      <c r="CA46" s="2">
         <v>3.6119132041931152</v>
       </c>
-      <c r="CA46" s="2">
+      <c r="CB46" s="2">
         <v>3.533393383026123</v>
       </c>
-      <c r="CB46" s="1">
+      <c r="CC46" s="1">
         <v>683.32464599609375</v>
       </c>
-      <c r="CC46" s="1">
+      <c r="CD46" s="1">
         <v>59296</v>
       </c>
-      <c r="CD46" s="2">
+      <c r="CE46" s="2">
         <v>2.7253129482269287</v>
       </c>
-      <c r="CE46" s="2">
+      <c r="CF46" s="2">
         <v>3.9050886631011963</v>
       </c>
-      <c r="CF46" s="1">
+      <c r="CG46" s="1">
         <v>1070.4114990234375</v>
       </c>
-      <c r="CG46" s="1">
+      <c r="CH46" s="1">
         <v>61882</v>
       </c>
-      <c r="CH46" s="1">
+      <c r="CI46" s="1">
         <v>3484.98681640625</v>
       </c>
     </row>
@@ -12661,33 +12802,36 @@
         <v>2.9010965824127197</v>
       </c>
       <c r="BY47" s="1">
+        <v>611.47491455078125</v>
+      </c>
+      <c r="BZ47" s="1">
         <v>59073</v>
       </c>
-      <c r="BZ47" s="2">
+      <c r="CA47" s="2">
         <v>3.6774940490722656</v>
       </c>
-      <c r="CA47" s="2">
+      <c r="CB47" s="2">
         <v>3.0000085830688477</v>
       </c>
-      <c r="CB47" s="1">
+      <c r="CC47" s="1">
         <v>616.34588623046875</v>
       </c>
-      <c r="CC47" s="1">
+      <c r="CD47" s="1">
         <v>62189</v>
       </c>
-      <c r="CD47" s="2">
+      <c r="CE47" s="2">
         <v>3.3360581398010254</v>
       </c>
-      <c r="CE47" s="2">
+      <c r="CF47" s="2">
         <v>3.1101555824279785</v>
       </c>
-      <c r="CF47" s="1">
+      <c r="CG47" s="1">
         <v>810.12469482421875</v>
       </c>
-      <c r="CG47" s="1">
+      <c r="CH47" s="1">
         <v>66305</v>
       </c>
-      <c r="CH47" s="1">
+      <c r="CI47" s="1">
         <v>909.34027099609375</v>
       </c>
     </row>
@@ -12921,33 +13065,36 @@
         <v>2.5172739028930664</v>
       </c>
       <c r="BY48" s="1">
+        <v>1004.8995361328125</v>
+      </c>
+      <c r="BZ48" s="1">
         <v>64189</v>
       </c>
-      <c r="BZ48" s="2">
+      <c r="CA48" s="2">
         <v>3.0056381225585938</v>
       </c>
-      <c r="CA48" s="2">
+      <c r="CB48" s="2">
         <v>2.7821030616760254</v>
       </c>
-      <c r="CB48" s="1">
+      <c r="CC48" s="1">
         <v>943.92950439453125</v>
       </c>
-      <c r="CC48" s="1">
+      <c r="CD48" s="1">
         <v>68350</v>
       </c>
-      <c r="CD48" s="2">
+      <c r="CE48" s="2">
         <v>2.6741254329681396</v>
       </c>
-      <c r="CE48" s="2">
+      <c r="CF48" s="2">
         <v>3.0104479789733887</v>
       </c>
-      <c r="CF48" s="1">
+      <c r="CG48" s="1">
         <v>1396.84521484375</v>
       </c>
-      <c r="CG48" s="1">
+      <c r="CH48" s="1">
         <v>73775</v>
       </c>
-      <c r="CH48" s="1">
+      <c r="CI48" s="1">
         <v>1567.1119384765625</v>
       </c>
     </row>
@@ -13181,33 +13328,36 @@
         <v>2.1323921680450439</v>
       </c>
       <c r="BY49" s="1">
+        <v>868.62725830078125</v>
+      </c>
+      <c r="BZ49" s="1">
         <v>42951</v>
       </c>
-      <c r="BZ49" s="2">
+      <c r="CA49" s="2">
         <v>2.0548522472381592</v>
       </c>
-      <c r="CA49" s="2">
+      <c r="CB49" s="2">
         <v>2.2041339874267578</v>
       </c>
-      <c r="CB49" s="1">
+      <c r="CC49" s="1">
         <v>900.55108642578125</v>
       </c>
-      <c r="CC49" s="1">
+      <c r="CD49" s="1">
         <v>45240</v>
       </c>
-      <c r="CD49" s="2">
+      <c r="CE49" s="2">
         <v>3.3171341419219971</v>
       </c>
-      <c r="CE49" s="2">
+      <c r="CF49" s="2">
         <v>2.5276596546173096</v>
       </c>
-      <c r="CF49" s="1">
+      <c r="CG49" s="1">
         <v>1071.186279296875</v>
       </c>
-      <c r="CG49" s="1">
+      <c r="CH49" s="1">
         <v>48488</v>
       </c>
-      <c r="CH49" s="1">
+      <c r="CI49" s="1">
         <v>1096.948974609375</v>
       </c>
     </row>
@@ -13441,33 +13591,36 @@
         <v>2.3210983276367188</v>
       </c>
       <c r="BY50" s="1">
+        <v>975.16455078125</v>
+      </c>
+      <c r="BZ50" s="1">
         <v>52893</v>
       </c>
-      <c r="BZ50" s="2">
+      <c r="CA50" s="2">
         <v>2.6194159984588623</v>
       </c>
-      <c r="CA50" s="2">
+      <c r="CB50" s="2">
         <v>2.4362268447875977</v>
       </c>
-      <c r="CB50" s="1">
+      <c r="CC50" s="1">
         <v>1013.5985717773438</v>
       </c>
-      <c r="CC50" s="1">
+      <c r="CD50" s="1">
         <v>55941</v>
       </c>
-      <c r="CD50" s="2">
+      <c r="CE50" s="2">
         <v>2.737290620803833</v>
       </c>
-      <c r="CE50" s="2">
+      <c r="CF50" s="2">
         <v>2.4779701232910156</v>
       </c>
-      <c r="CF50" s="1">
+      <c r="CG50" s="1">
         <v>1137.5223388671875</v>
       </c>
-      <c r="CG50" s="1">
+      <c r="CH50" s="1">
         <v>59626</v>
       </c>
-      <c r="CH50" s="1">
+      <c r="CI50" s="1">
         <v>1296.0155029296875</v>
       </c>
     </row>
@@ -13701,33 +13854,36 @@
         <v>3.7509455680847168</v>
       </c>
       <c r="BY51" s="1">
+        <v>1445.970458984375</v>
+      </c>
+      <c r="BZ51" s="1">
         <v>64117</v>
       </c>
-      <c r="BZ51" s="2">
+      <c r="CA51" s="2">
         <v>4.5990800857543945</v>
       </c>
-      <c r="CA51" s="2">
+      <c r="CB51" s="2">
         <v>4.2043313980102539</v>
       </c>
-      <c r="CB51" s="1">
+      <c r="CC51" s="1">
         <v>1425.25634765625</v>
       </c>
-      <c r="CC51" s="1">
+      <c r="CD51" s="1">
         <v>65782</v>
       </c>
-      <c r="CD51" s="2">
+      <c r="CE51" s="2">
         <v>4.6356363296508789</v>
       </c>
-      <c r="CE51" s="2">
+      <c r="CF51" s="2">
         <v>4.4728002548217773</v>
       </c>
-      <c r="CF51" s="1">
+      <c r="CG51" s="1">
         <v>1670.9771728515625</v>
       </c>
-      <c r="CG51" s="1">
+      <c r="CH51" s="1">
         <v>69666</v>
       </c>
-      <c r="CH51" s="1">
+      <c r="CI51" s="1">
         <v>1822.5751953125</v>
       </c>
     </row>
